--- a/Regression Dataset(Even number id).xlsx
+++ b/Regression Dataset(Even number id).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B72AD-8C7F-4402-8445-9266278F9871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +16,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">GR </t>
-  </si>
   <si>
     <t>MSFL</t>
   </si>
@@ -30,11 +28,14 @@
   <si>
     <t>Porosity</t>
   </si>
+  <si>
+    <t>GR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,6 +160,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -194,6 +212,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,33 +404,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>105.024055</v>
       </c>
@@ -412,7 +447,7 @@
         <v>0.28005751000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>104.883178</v>
       </c>
@@ -429,7 +464,7 @@
         <v>0.28197935000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>104.820617</v>
       </c>
@@ -446,7 +481,7 @@
         <v>0.28344613000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>106.420593</v>
       </c>
@@ -463,7 +498,7 @@
         <v>0.28336992</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>107.630149</v>
       </c>
@@ -480,7 +515,7 @@
         <v>0.28253728</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108.943534</v>
       </c>
@@ -497,7 +532,7 @@
         <v>0.28161185</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>109.60382799999999</v>
       </c>
@@ -514,7 +549,7 @@
         <v>0.28256883999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>107.286682</v>
       </c>
@@ -531,7 +566,7 @@
         <v>0.28177475000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>105.182395</v>
       </c>
@@ -548,7 +583,7 @@
         <v>0.28232571000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>104.65061900000001</v>
       </c>
@@ -565,7 +600,7 @@
         <v>0.28855499000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>103.41501599999999</v>
       </c>
@@ -582,7 +617,7 @@
         <v>0.28201242999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>103.68081599999999</v>
       </c>
@@ -599,7 +634,7 @@
         <v>0.27525748999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>102.95682499999999</v>
       </c>
@@ -616,7 +651,7 @@
         <v>0.27140768999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>101.749748</v>
       </c>
@@ -633,7 +668,7 @@
         <v>0.26959833</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>100.292221</v>
       </c>
@@ -650,7 +685,7 @@
         <v>0.27042498999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>100.44657100000001</v>
       </c>
@@ -667,7 +702,7 @@
         <v>0.29628001999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>101.39859</v>
       </c>
@@ -684,7 +719,7 @@
         <v>0.35439503</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>103.81199599999999</v>
       </c>
@@ -701,7 +736,7 @@
         <v>0.38722366000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>106.74007400000001</v>
       </c>
@@ -718,7 +753,7 @@
         <v>0.37889265999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>109.11520299999999</v>
       </c>
@@ -735,7 +770,7 @@
         <v>0.37242341000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>111.198768</v>
       </c>
@@ -752,7 +787,7 @@
         <v>0.37768632000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>111.679016</v>
       </c>
@@ -769,7 +804,7 @@
         <v>0.38284361</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>111.662429</v>
       </c>
@@ -786,7 +821,7 @@
         <v>0.38574459999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>111.595146</v>
       </c>
@@ -803,7 +838,7 @@
         <v>0.39512102999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>109.72425800000001</v>
       </c>
@@ -820,7 +855,7 @@
         <v>0.39813747999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>110.051017</v>
       </c>
@@ -837,7 +872,7 @@
         <v>0.38712379000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>110.851951</v>
       </c>
@@ -854,7 +889,7 @@
         <v>0.35466212000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>110.468666</v>
       </c>
@@ -871,7 +906,7 @@
         <v>0.29899457000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>110.24471200000001</v>
       </c>
@@ -888,7 +923,7 @@
         <v>0.23977825</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>107.105453</v>
       </c>
@@ -905,7 +940,7 @@
         <v>0.2098962</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>101.623001</v>
       </c>
@@ -922,7 +957,7 @@
         <v>0.21694480999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>97.999832100000006</v>
       </c>
@@ -939,7 +974,7 @@
         <v>0.22582244000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>95.941200199999997</v>
       </c>
@@ -956,7 +991,7 @@
         <v>0.22990378</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>97.231849600000004</v>
       </c>
@@ -973,7 +1008,7 @@
         <v>0.23651469999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>102.51782900000001</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>0.25225778999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>107.749481</v>
       </c>
@@ -1007,7 +1042,7 @@
         <v>0.27069728999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>110.53263</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>0.27655385999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>111.04609600000001</v>
       </c>
@@ -1041,7 +1076,7 @@
         <v>0.27426805999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>109.49067599999999</v>
       </c>
@@ -1058,7 +1093,7 @@
         <v>0.26810443</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>106.186058</v>
       </c>
@@ -1075,7 +1110,7 @@
         <v>0.25696640999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>106.95307099999999</v>
       </c>
@@ -1092,7 +1127,7 @@
         <v>0.26334381000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>111.12881400000001</v>
       </c>
@@ -1109,7 +1144,7 @@
         <v>0.26421254</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>111.41566400000001</v>
       </c>
@@ -1126,7 +1161,7 @@
         <v>0.25664520000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>109.550254</v>
       </c>
@@ -1143,7 +1178,7 @@
         <v>0.24801625999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>107.206153</v>
       </c>
@@ -1160,7 +1195,7 @@
         <v>0.24074466</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>104.727874</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>0.23489742999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>101.784561</v>
       </c>
@@ -1194,7 +1229,7 @@
         <v>0.23543175999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>108.329933</v>
       </c>
@@ -1211,7 +1246,7 @@
         <v>0.24219699</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>108.47526499999999</v>
       </c>
@@ -1228,7 +1263,7 @@
         <v>0.24751250999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>107.939971</v>
       </c>
@@ -1245,7 +1280,7 @@
         <v>0.24580995</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>106.80867000000001</v>
       </c>
@@ -1262,7 +1297,7 @@
         <v>0.23477384000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>104.552047</v>
       </c>
@@ -1279,7 +1314,7 @@
         <v>0.22324261000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>103.657569</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>0.21904245</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>103.043159</v>
       </c>
@@ -1313,7 +1348,7 @@
         <v>0.2201448</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>102.994865</v>
       </c>
@@ -1330,7 +1365,7 @@
         <v>0.22446995</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>104.88883199999999</v>
       </c>
@@ -1347,7 +1382,7 @@
         <v>0.22933913</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>104.577384</v>
       </c>
@@ -1364,7 +1399,7 @@
         <v>0.23267751</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>103.01786</v>
       </c>
@@ -1381,7 +1416,7 @@
         <v>0.23568745999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>102.155311</v>
       </c>
@@ -1398,7 +1433,7 @@
         <v>0.23882654</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>99.746803200000002</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>0.24302127000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>97.262031500000006</v>
       </c>
@@ -1432,7 +1467,7 @@
         <v>0.23568723999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>96.041419899999994</v>
       </c>
@@ -1449,7 +1484,7 @@
         <v>0.22353244999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>96.1415863</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>0.22157023000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>96.325477599999999</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>0.22044946000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>97.282943700000004</v>
       </c>
@@ -1500,7 +1535,7 @@
         <v>0.22019642</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>99.043960499999997</v>
       </c>
@@ -1517,7 +1552,7 @@
         <v>0.22112227000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>101.554069</v>
       </c>
@@ -1534,7 +1569,7 @@
         <v>0.22224294999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>105.082138</v>
       </c>
@@ -1551,7 +1586,7 @@
         <v>0.22326273999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>106.97946899999999</v>
       </c>
@@ -1568,7 +1603,7 @@
         <v>0.22582632999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>109.19182499999999</v>
       </c>
@@ -1585,7 +1620,7 @@
         <v>0.22838884000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>109.079689</v>
       </c>
@@ -1602,7 +1637,7 @@
         <v>0.23022962999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>106.757606</v>
       </c>
@@ -1619,7 +1654,7 @@
         <v>0.22846085999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>102.947982</v>
       </c>
@@ -1636,7 +1671,7 @@
         <v>0.22235596999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>102.077743</v>
       </c>
@@ -1653,7 +1688,7 @@
         <v>0.20894160000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>103.416961</v>
       </c>
@@ -1670,7 +1705,7 @@
         <v>0.19820916</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>106.977867</v>
       </c>
@@ -1687,7 +1722,7 @@
         <v>0.20001424000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>109.31635199999999</v>
       </c>
@@ -1704,7 +1739,7 @@
         <v>0.20573717</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>114.22848500000001</v>
       </c>
@@ -1721,7 +1756,7 @@
         <v>0.20575753999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>113.185981</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>0.20396579000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>111.756011</v>
       </c>
@@ -1755,7 +1790,7 @@
         <v>0.20144094000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>110.932716</v>
       </c>
@@ -1772,7 +1807,7 @@
         <v>0.20104965</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>111.513099</v>
       </c>
@@ -1789,7 +1824,7 @@
         <v>0.19525219999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>110.730453</v>
       </c>
@@ -1806,7 +1841,7 @@
         <v>0.19272243</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>110.47621100000001</v>
       </c>
